--- a/영수증_템플릿.xlsx
+++ b/영수증_템플릿.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39c79c6f8397ec0f/바탕 화면/새 폴더 (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{623486EC-BE78-441D-B609-5D57E8AE70B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{745CCE61-4155-4223-A27C-2D405832AEC5}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{623486EC-BE78-441D-B609-5D57E8AE70B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A797B534-6312-4F00-AFB1-9DFE6CD48637}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1800" windowWidth="16440" windowHeight="28320" xr2:uid="{B0F2858B-839A-43A0-85CF-0B467132C023}"/>
   </bookViews>
@@ -634,6 +634,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -655,18 +826,12 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -681,171 +846,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,7 +1409,7 @@
   <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:R23"/>
+      <selection activeCell="Y14" sqref="Y14:AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,13 +1420,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -1436,20 +1436,20 @@
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
       <c r="S1" s="6"/>
       <c r="T1" s="2"/>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
@@ -1460,975 +1460,975 @@
       <c r="AF1" s="13"/>
       <c r="AG1" s="13"/>
       <c r="AH1" s="13"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AI1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="42" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="44"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="72"/>
       <c r="S2" s="6"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="42" t="s">
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
       <c r="AI2" s="16"/>
       <c r="AJ2" s="14"/>
       <c r="AK2" s="14"/>
       <c r="AL2" s="15"/>
     </row>
     <row r="3" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="35"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="90"/>
       <c r="S3" s="7"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="33" t="s">
+      <c r="U3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="35"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="90"/>
     </row>
-    <row r="4" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="32" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
       <c r="R4" s="38"/>
       <c r="S4" s="6"/>
       <c r="T4" s="2"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="36" t="s">
+      <c r="V4" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="32" t="s">
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
       <c r="AL4" s="38"/>
     </row>
-    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="29" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="28">
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="85">
         <f>AG5</f>
         <v>13000000</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="26" t="s">
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="27"/>
+      <c r="R5" s="84"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="32"/>
+      <c r="T5" s="37"/>
       <c r="U5" s="3"/>
       <c r="V5" s="39" t="s">
         <v>6</v>
       </c>
       <c r="W5" s="39"/>
       <c r="X5" s="39"/>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="29" t="s">
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="28">
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="85">
         <v>13000000</v>
       </c>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="26" t="s">
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="AL5" s="27"/>
+      <c r="AL5" s="84"/>
     </row>
-    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="27"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="84"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="32"/>
+      <c r="T6" s="37"/>
       <c r="U6" s="3"/>
       <c r="V6" s="39"/>
       <c r="W6" s="39"/>
       <c r="X6" s="39"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="27"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="85"/>
+      <c r="AJ6" s="85"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="84"/>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="54" t="str">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="74" t="str">
         <f>Y7</f>
         <v>충남 아산시 신창면 행목로 217, 104동 302호(행목리,아산친오애아파트)</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="76"/>
       <c r="S7" s="6"/>
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="29" t="s">
+      <c r="V7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="54" t="s">
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="56"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="76"/>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="58"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="78"/>
       <c r="S8" s="6"/>
       <c r="T8" s="2"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="58"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+      <c r="AJ8" s="77"/>
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="78"/>
     </row>
     <row r="9" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="63" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="83"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="45"/>
       <c r="S9" s="8"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="71" t="s">
+      <c r="U9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="63" t="s">
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="64"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="83"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="45"/>
     </row>
     <row r="10" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="48" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="48" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50" t="s">
+      <c r="I10" s="23"/>
+      <c r="J10" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="48" t="s">
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="48" t="s">
+      <c r="O10" s="33"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="62"/>
+      <c r="R10" s="46"/>
       <c r="S10" s="8"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="89" t="s">
+      <c r="U10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="48" t="s">
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="48" t="s">
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="50" t="s">
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="48" t="s">
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="52"/>
-      <c r="AK10" s="48" t="s">
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="62"/>
+      <c r="AL10" s="46"/>
     </row>
     <row r="11" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="45">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="24">
         <v>90000</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="62"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="46"/>
       <c r="S11" s="8"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="66" t="s">
+      <c r="U11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="86" t="s">
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="82" t="s">
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="45">
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="24">
         <f>AG5*0.2%</f>
         <v>26000</v>
       </c>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="62"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="46"/>
     </row>
     <row r="12" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="62"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="46"/>
       <c r="S12" s="8"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="81"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="82" t="s">
+      <c r="U12" s="27"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="45">
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="24">
         <f>AG5*0.04%</f>
         <v>5200</v>
       </c>
-      <c r="AI12" s="46"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="62"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="46"/>
     </row>
     <row r="13" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="62"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="46"/>
       <c r="S13" s="8"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="82" t="s">
+      <c r="U13" s="27"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="45">
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="24">
         <v>18000</v>
       </c>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="62"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="46"/>
     </row>
     <row r="14" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="62"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="46"/>
       <c r="S14" s="8"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="85" t="s">
+      <c r="U14" s="27"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="45">
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="24">
         <f>AG5*10/1000*11.4%</f>
         <v>14820</v>
       </c>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="62"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="46"/>
     </row>
     <row r="15" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="62"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="46"/>
       <c r="S15" s="8"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="82" t="s">
+      <c r="U15" s="27"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="45">
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="24">
         <v>20000</v>
       </c>
-      <c r="AI15" s="46"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="62"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="46"/>
     </row>
     <row r="16" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="62"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="46"/>
       <c r="S16" s="8"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="82" t="s">
+      <c r="U16" s="27"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="52"/>
-      <c r="AH16" s="45">
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="24">
         <v>0</v>
       </c>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="62"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="46"/>
     </row>
     <row r="17" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="62"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="46"/>
       <c r="S17" s="8"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="82" t="s">
+      <c r="U17" s="27"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="45">
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="24">
         <v>20000</v>
       </c>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="62"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="46"/>
     </row>
     <row r="18" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="62"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="46"/>
       <c r="S18" s="8"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="82" t="s">
+      <c r="U18" s="27"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="52"/>
-      <c r="AH18" s="45">
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="24">
         <v>0</v>
       </c>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="62"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="46"/>
     </row>
     <row r="19" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="62"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="46"/>
       <c r="S19" s="8"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="62"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="46"/>
     </row>
     <row r="20" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="45">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="24">
         <v>9000</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="62"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="46"/>
       <c r="S20" s="8"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="66" t="s">
+      <c r="U20" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="45">
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="24">
         <v>0</v>
       </c>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="46"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="62"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="46"/>
     </row>
     <row r="21" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="45">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="24">
         <v>99000</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="63" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="62"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="46"/>
       <c r="S21" s="8"/>
       <c r="T21" s="39"/>
-      <c r="U21" s="71" t="s">
+      <c r="U21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="45">
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="24">
         <v>0</v>
       </c>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="63" t="s">
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AE21" s="64"/>
-      <c r="AF21" s="64"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="45">
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="24">
         <f>SUM(AH11:AJ20)</f>
         <v>104020</v>
       </c>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="62"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="46"/>
     </row>
     <row r="22" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="75">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63">
         <v>99000</v>
       </c>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -2440,20 +2440,20 @@
       <c r="R22" s="12"/>
       <c r="S22" s="9"/>
       <c r="T22" s="39"/>
-      <c r="U22" s="71" t="s">
+      <c r="U22" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="75">
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="63">
         <f>AH21</f>
         <v>104020</v>
       </c>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="76"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="64"/>
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
       <c r="AF22" s="11"/>
@@ -2466,52 +2466,52 @@
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="74"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
       <c r="S23" s="6"/>
       <c r="T23" s="2"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="72" t="s">
+      <c r="V23" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="73"/>
-      <c r="AI23" s="73"/>
-      <c r="AJ23" s="73"/>
-      <c r="AK23" s="73"/>
-      <c r="AL23" s="74"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="56"/>
     </row>
     <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
+      <c r="A24" s="66">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>46006</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -2529,12 +2529,12 @@
       <c r="O24" s="39"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="39"/>
-      <c r="R24" s="41"/>
+      <c r="R24" s="61"/>
       <c r="S24" s="6"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="40">
+      <c r="U24" s="66">
         <f ca="1">A24</f>
-        <v>45994</v>
+        <v>46006</v>
       </c>
       <c r="V24" s="39"/>
       <c r="W24" s="39"/>
@@ -2552,251 +2552,251 @@
       <c r="AI24" s="39"/>
       <c r="AJ24" s="39"/>
       <c r="AK24" s="39"/>
-      <c r="AL24" s="41"/>
+      <c r="AL24" s="61"/>
     </row>
     <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="77" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="79"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="69"/>
       <c r="S25" s="8"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="80" t="s">
+      <c r="U25" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="77" t="s">
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="77"/>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="77"/>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="77"/>
-      <c r="AK25" s="77"/>
-      <c r="AL25" s="79"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="67"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="69"/>
     </row>
     <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="77" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="48" t="s">
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="62"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="46"/>
       <c r="S26" s="8"/>
       <c r="T26" s="39"/>
-      <c r="U26" s="80" t="s">
+      <c r="U26" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="77" t="s">
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="77"/>
-      <c r="AA26" s="77"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="77"/>
-      <c r="AE26" s="77"/>
-      <c r="AF26" s="77"/>
-      <c r="AG26" s="77"/>
-      <c r="AH26" s="77"/>
-      <c r="AI26" s="78"/>
-      <c r="AJ26" s="48" t="s">
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="67"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="62"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="46"/>
     </row>
     <row r="27" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="77" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="69"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="59"/>
       <c r="S27" s="8"/>
       <c r="T27" s="39"/>
-      <c r="U27" s="80" t="s">
+      <c r="U27" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="77" t="s">
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="77"/>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="77"/>
-      <c r="AE27" s="77"/>
-      <c r="AF27" s="77"/>
-      <c r="AG27" s="77"/>
-      <c r="AH27" s="77"/>
-      <c r="AI27" s="78"/>
-      <c r="AJ27" s="67"/>
-      <c r="AK27" s="68"/>
-      <c r="AL27" s="69"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="67"/>
+      <c r="AC27" s="67"/>
+      <c r="AD27" s="67"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="67"/>
+      <c r="AG27" s="67"/>
+      <c r="AH27" s="67"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="58"/>
+      <c r="AL27" s="59"/>
     </row>
     <row r="28" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="77" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="70"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="60"/>
       <c r="Q28" s="39"/>
-      <c r="R28" s="41"/>
+      <c r="R28" s="61"/>
       <c r="S28" s="8"/>
       <c r="T28" s="39"/>
-      <c r="U28" s="80" t="s">
+      <c r="U28" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="77" t="s">
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="Y28" s="77"/>
-      <c r="Z28" s="77"/>
-      <c r="AA28" s="77"/>
-      <c r="AB28" s="77"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="77"/>
-      <c r="AE28" s="77"/>
-      <c r="AF28" s="77"/>
-      <c r="AG28" s="77"/>
-      <c r="AH28" s="77"/>
-      <c r="AI28" s="78"/>
-      <c r="AJ28" s="70"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="67"/>
+      <c r="AC28" s="67"/>
+      <c r="AD28" s="67"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="67"/>
+      <c r="AI28" s="68"/>
+      <c r="AJ28" s="60"/>
       <c r="AK28" s="39"/>
-      <c r="AL28" s="41"/>
+      <c r="AL28" s="61"/>
     </row>
     <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="77" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="70"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="60"/>
       <c r="Q29" s="39"/>
-      <c r="R29" s="41"/>
+      <c r="R29" s="61"/>
       <c r="S29" s="8"/>
       <c r="T29" s="39"/>
-      <c r="U29" s="80" t="s">
+      <c r="U29" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="77" t="s">
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="Y29" s="77"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="77"/>
-      <c r="AG29" s="77"/>
-      <c r="AH29" s="77"/>
-      <c r="AI29" s="78"/>
-      <c r="AJ29" s="70"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="67"/>
+      <c r="AD29" s="67"/>
+      <c r="AE29" s="67"/>
+      <c r="AF29" s="67"/>
+      <c r="AG29" s="67"/>
+      <c r="AH29" s="67"/>
+      <c r="AI29" s="68"/>
+      <c r="AJ29" s="60"/>
       <c r="AK29" s="39"/>
-      <c r="AL29" s="41"/>
+      <c r="AL29" s="61"/>
     </row>
     <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
@@ -2843,67 +2843,136 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="215">
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="E5:I6"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="J9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="M5:P6"/>
+    <mergeCell ref="AG5:AJ6"/>
+    <mergeCell ref="AK5:AL6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="U3:AL3"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="Y5:AC6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="U24:AL24"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="AA2:AH2"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="E7:R8"/>
+    <mergeCell ref="V7:X8"/>
+    <mergeCell ref="Y7:AL8"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="AJ27:AL29"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="V23:AL23"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="D27:O27"/>
+    <mergeCell ref="D28:O28"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D25:R25"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:AL25"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:AI26"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:AI28"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:AI29"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="P27:R29"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="U16:X16"/>
     <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="AH10:AJ10"/>
     <mergeCell ref="AK10:AL10"/>
@@ -2928,136 +2997,67 @@
     <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="AK12:AL12"/>
     <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="P27:R29"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A24:R24"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="AJ27:AL29"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="V23:AL23"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="D27:O27"/>
-    <mergeCell ref="D28:O28"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="D25:R25"/>
-    <mergeCell ref="D26:O26"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:AL25"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:AI26"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:AI28"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:AI29"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="U24:AL24"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="AA2:AH2"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="E7:R8"/>
-    <mergeCell ref="V7:X8"/>
-    <mergeCell ref="Y7:AL8"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="M5:P6"/>
-    <mergeCell ref="AG5:AJ6"/>
-    <mergeCell ref="AK5:AL6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="U3:AL3"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="Y5:AC6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="E5:I6"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="J9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="J16:M16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
